--- a/Наработки/ТренировОчки.xlsx
+++ b/Наработки/ТренировОчки.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\garret\Наработки\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\garret\Наработки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD48F70-8B80-45C5-8D45-839E5C1D9655}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B71DFB1-F756-4AF2-B439-B69994115B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="6405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Понедельник (ноги)" sheetId="5" r:id="rId1"/>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
-  <si>
-    <t>Сгибы</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Приседания с гантелей</t>
   </si>
@@ -87,13 +84,43 @@
     <t>Тяга к подбородку</t>
   </si>
   <si>
-    <t>Наклоны с гантелями</t>
-  </si>
-  <si>
     <t>Ягодичный мостик</t>
   </si>
   <si>
     <t>Двойные скручивания с гантелей</t>
+  </si>
+  <si>
+    <t>6,25 на 15</t>
+  </si>
+  <si>
+    <t>9,25 на 16</t>
+  </si>
+  <si>
+    <t>9,25 на 25</t>
+  </si>
+  <si>
+    <t>9,25 на 50</t>
+  </si>
+  <si>
+    <t>3,25 на 20</t>
+  </si>
+  <si>
+    <t>5 на 12</t>
+  </si>
+  <si>
+    <t>10 на 15</t>
+  </si>
+  <si>
+    <t>10 на 20</t>
+  </si>
+  <si>
+    <t>10 на 50</t>
+  </si>
+  <si>
+    <t>7,5 на 12</t>
+  </si>
+  <si>
+    <t>6,25 на 12</t>
   </si>
 </sst>
 </file>
@@ -150,11 +177,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -494,20 +522,480 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F46DF2F-CEE8-4DF3-83A5-879C1B45EA1A}">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4">
+        <v>44809</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069D14C5-5C04-4A07-A4F3-2B703457F47D}">
+  <dimension ref="A1:V14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4">
+        <v>44811</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49ADF2D0-0286-4B00-B838-815531830F2D}">
+  <dimension ref="A1:V9"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -533,7 +1021,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -559,7 +1047,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -585,7 +1073,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -611,7 +1099,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -637,7 +1125,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -663,7 +1151,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -688,8 +1176,8 @@
       <c r="V7" s="2"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>22</v>
+      <c r="A8" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -713,236 +1201,9 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069D14C5-5C04-4A07-A4F3-2B703457F47D}">
-  <dimension ref="A1:V15"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-    </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -966,261 +1227,6 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49ADF2D0-0286-4B00-B838-815531830F2D}">
-  <dimension ref="A1:V9"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Наработки/ТренировОчки.xlsx
+++ b/Наработки/ТренировОчки.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\garret\Наработки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B71DFB1-F756-4AF2-B439-B69994115B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCDC603-82F4-4BA4-B67E-4D3280E6495E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Понедельник (ноги)" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="70">
   <si>
     <t>Приседания с гантелей</t>
   </si>
@@ -121,6 +121,117 @@
   </si>
   <si>
     <t>6,25 на 12</t>
+  </si>
+  <si>
+    <t>6,75 на 15</t>
+  </si>
+  <si>
+    <t>10,5 на 25</t>
+  </si>
+  <si>
+    <t>10,5 на 50</t>
+  </si>
+  <si>
+    <t>10,5 на 15</t>
+  </si>
+  <si>
+    <t>3,75 на 20</t>
+  </si>
+  <si>
+    <t>10,5 на 20</t>
+  </si>
+  <si>
+    <t>8 на 12</t>
+  </si>
+  <si>
+    <t>3,75 на 12</t>
+  </si>
+  <si>
+    <t>12,5 на 50</t>
+  </si>
+  <si>
+    <t>10 на 12</t>
+  </si>
+  <si>
+    <t>8,25 на 12</t>
+  </si>
+  <si>
+    <t>4,25 на 12</t>
+  </si>
+  <si>
+    <t>4,25 на 20</t>
+  </si>
+  <si>
+    <t>7,5 на 20</t>
+  </si>
+  <si>
+    <t>11,25 на 25</t>
+  </si>
+  <si>
+    <t>11,25 на 15</t>
+  </si>
+  <si>
+    <t>11,25 на 50</t>
+  </si>
+  <si>
+    <t>6,75 на 12</t>
+  </si>
+  <si>
+    <t>10,5 на 12</t>
+  </si>
+  <si>
+    <t>8,75 на 12</t>
+  </si>
+  <si>
+    <t>5 на 20</t>
+  </si>
+  <si>
+    <t>8 на 20</t>
+  </si>
+  <si>
+    <t>11,75 на 15</t>
+  </si>
+  <si>
+    <t>11,75 на 25</t>
+  </si>
+  <si>
+    <t>11,75 на 50</t>
+  </si>
+  <si>
+    <t>12,5 на 15</t>
+  </si>
+  <si>
+    <t>11,75 на 10</t>
+  </si>
+  <si>
+    <t>8,75 на 20</t>
+  </si>
+  <si>
+    <t>11,25 на 12</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>5,5 на 12</t>
+  </si>
+  <si>
+    <t>5,5 на 20</t>
+  </si>
+  <si>
+    <t>8,75 на 15</t>
+  </si>
+  <si>
+    <t>9,25 на 15</t>
+  </si>
+  <si>
+    <t>12,5 на 25</t>
+  </si>
+  <si>
+    <t>8,75 на 8</t>
+  </si>
+  <si>
+    <t>11,75 на 12</t>
   </si>
 </sst>
 </file>
@@ -141,12 +252,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -177,12 +294,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -524,14 +642,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F46DF2F-CEE8-4DF3-83A5-879C1B45EA1A}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -541,13 +659,27 @@
       <c r="B1" s="4">
         <v>44809</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="C1" s="4">
+        <v>44816</v>
+      </c>
+      <c r="D1" s="4">
+        <v>44823</v>
+      </c>
+      <c r="E1" s="4">
+        <v>44831</v>
+      </c>
+      <c r="F1" s="4">
+        <v>44837</v>
+      </c>
+      <c r="G1" s="4">
+        <v>44844</v>
+      </c>
+      <c r="H1" s="4">
+        <v>44850</v>
+      </c>
+      <c r="I1" s="4">
+        <v>44859</v>
+      </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -569,11 +701,671 @@
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069D14C5-5C04-4A07-A4F3-2B703457F47D}">
+  <dimension ref="A1:V14"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4">
+        <v>44811</v>
+      </c>
+      <c r="C1" s="4">
+        <v>44818</v>
+      </c>
+      <c r="D1" s="4">
+        <v>44825</v>
+      </c>
+      <c r="E1" s="4">
+        <v>44833</v>
+      </c>
+      <c r="F1" s="4">
+        <v>44839</v>
+      </c>
+      <c r="G1" s="4">
+        <v>44846</v>
+      </c>
+      <c r="H1" s="4">
+        <v>44847</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49ADF2D0-0286-4B00-B838-815531830F2D}">
+  <dimension ref="A1:V9"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4">
+        <v>44819</v>
+      </c>
+      <c r="C1" s="4">
+        <v>44827</v>
+      </c>
+      <c r="D1" s="4">
+        <v>44836</v>
+      </c>
+      <c r="E1" s="4">
+        <v>44840</v>
+      </c>
+      <c r="F1" s="4">
+        <v>44848</v>
+      </c>
+      <c r="G1" s="4">
+        <v>44854</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -592,16 +1384,26 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -620,16 +1422,26 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -648,16 +1460,26 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -676,16 +1498,26 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -703,17 +1535,27 @@
       <c r="V6" s="2"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
+      <c r="A7" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -730,461 +1572,28 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069D14C5-5C04-4A07-A4F3-2B703457F47D}">
-  <dimension ref="A1:V14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4">
-        <v>44811</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49ADF2D0-0286-4B00-B838-815531830F2D}">
-  <dimension ref="A1:V9"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-    </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>

--- a/Наработки/ТренировОчки.xlsx
+++ b/Наработки/ТренировОчки.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\garret\Наработки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCDC603-82F4-4BA4-B67E-4D3280E6495E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63979CE-9AC2-471E-B208-AD414A7D8850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Понедельник (ноги)" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="71">
   <si>
     <t>Приседания с гантелей</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>11,75 на 12</t>
+  </si>
+  <si>
+    <t>8,75 на 10</t>
   </si>
 </sst>
 </file>
@@ -642,14 +645,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F46DF2F-CEE8-4DF3-83A5-879C1B45EA1A}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -680,7 +683,9 @@
       <c r="I1" s="4">
         <v>44859</v>
       </c>
-      <c r="J1" s="4"/>
+      <c r="J1" s="4">
+        <v>44872</v>
+      </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -721,6 +726,720 @@
       </c>
       <c r="I2" s="2" t="s">
         <v>66</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069D14C5-5C04-4A07-A4F3-2B703457F47D}">
+  <dimension ref="A1:V14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4">
+        <v>44811</v>
+      </c>
+      <c r="C1" s="4">
+        <v>44818</v>
+      </c>
+      <c r="D1" s="4">
+        <v>44825</v>
+      </c>
+      <c r="E1" s="4">
+        <v>44833</v>
+      </c>
+      <c r="F1" s="4">
+        <v>44839</v>
+      </c>
+      <c r="G1" s="4">
+        <v>44846</v>
+      </c>
+      <c r="H1" s="4">
+        <v>44854</v>
+      </c>
+      <c r="I1" s="4">
+        <v>44861</v>
+      </c>
+      <c r="J1" s="4">
+        <v>44866</v>
+      </c>
+      <c r="K1" s="4">
+        <v>44874</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49ADF2D0-0286-4B00-B838-815531830F2D}">
+  <dimension ref="A1:V9"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4">
+        <v>44819</v>
+      </c>
+      <c r="C1" s="4">
+        <v>44827</v>
+      </c>
+      <c r="D1" s="4">
+        <v>44836</v>
+      </c>
+      <c r="E1" s="4">
+        <v>44840</v>
+      </c>
+      <c r="F1" s="4">
+        <v>44848</v>
+      </c>
+      <c r="G1" s="4">
+        <v>44854</v>
+      </c>
+      <c r="H1" s="4">
+        <v>44864</v>
+      </c>
+      <c r="I1" s="4">
+        <v>44867</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -738,31 +1457,31 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -780,31 +1499,31 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -822,31 +1541,31 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -864,31 +1583,31 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -905,32 +1624,32 @@
       <c r="V6" s="2"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
+      <c r="A7" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -946,632 +1665,6 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069D14C5-5C04-4A07-A4F3-2B703457F47D}">
-  <dimension ref="A1:V14"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4">
-        <v>44811</v>
-      </c>
-      <c r="C1" s="4">
-        <v>44818</v>
-      </c>
-      <c r="D1" s="4">
-        <v>44825</v>
-      </c>
-      <c r="E1" s="4">
-        <v>44833</v>
-      </c>
-      <c r="F1" s="4">
-        <v>44839</v>
-      </c>
-      <c r="G1" s="4">
-        <v>44846</v>
-      </c>
-      <c r="H1" s="4">
-        <v>44847</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49ADF2D0-0286-4B00-B838-815531830F2D}">
-  <dimension ref="A1:V9"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4">
-        <v>44819</v>
-      </c>
-      <c r="C1" s="4">
-        <v>44827</v>
-      </c>
-      <c r="D1" s="4">
-        <v>44836</v>
-      </c>
-      <c r="E1" s="4">
-        <v>44840</v>
-      </c>
-      <c r="F1" s="4">
-        <v>44848</v>
-      </c>
-      <c r="G1" s="4">
-        <v>44854</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-    </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>17</v>
@@ -1594,8 +1687,12 @@
       <c r="G8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>

--- a/Наработки/ТренировОчки.xlsx
+++ b/Наработки/ТренировОчки.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\garret\Наработки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63979CE-9AC2-471E-B208-AD414A7D8850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EED475-636A-4914-B365-B1F7AF6DE493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Понедельник (ноги)" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="71">
   <si>
     <t>Приседания с гантелей</t>
   </si>
@@ -973,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069D14C5-5C04-4A07-A4F3-2B703457F47D}">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1361,14 +1361,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49ADF2D0-0286-4B00-B838-815531830F2D}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -1399,7 +1399,9 @@
       <c r="I1" s="4">
         <v>44867</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="4">
+        <v>44878</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -1441,7 +1443,9 @@
       <c r="I2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1483,7 +1487,9 @@
       <c r="I3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1525,7 +1531,9 @@
       <c r="I4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1567,7 +1575,9 @@
       <c r="I5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1609,7 +1619,9 @@
       <c r="I6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1651,7 +1663,9 @@
       <c r="I7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1693,7 +1707,9 @@
       <c r="I8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>

--- a/Наработки/ТренировОчки.xlsx
+++ b/Наработки/ТренировОчки.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\garret\Наработки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EED475-636A-4914-B365-B1F7AF6DE493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9190FA-4D61-47E6-B1B7-0A79797EC1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Понедельник (ноги)" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="71">
   <si>
     <t>Приседания с гантелей</t>
   </si>
@@ -645,14 +645,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F46DF2F-CEE8-4DF3-83A5-879C1B45EA1A}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -686,7 +686,9 @@
       <c r="J1" s="4">
         <v>44872</v>
       </c>
-      <c r="K1" s="4"/>
+      <c r="K1" s="4">
+        <v>44879</v>
+      </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -730,7 +732,9 @@
       <c r="J2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -774,7 +778,9 @@
       <c r="J3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -862,7 +868,9 @@
       <c r="J5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -906,7 +914,9 @@
       <c r="J6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -950,7 +960,9 @@
       <c r="J7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1361,7 +1373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49ADF2D0-0286-4B00-B838-815531830F2D}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>

--- a/Наработки/ТренировОчки.xlsx
+++ b/Наработки/ТренировОчки.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\garret\Наработки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9190FA-4D61-47E6-B1B7-0A79797EC1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36925C81-D6D4-4C8F-A451-C429E8D7ABC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Понедельник (ноги)" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="71">
   <si>
     <t>Приседания с гантелей</t>
   </si>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F46DF2F-CEE8-4DF3-83A5-879C1B45EA1A}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -824,7 +824,9 @@
       <c r="J4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -985,14 +987,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069D14C5-5C04-4A07-A4F3-2B703457F47D}">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -1029,7 +1031,9 @@
       <c r="K1" s="4">
         <v>44874</v>
       </c>
-      <c r="L1" s="2"/>
+      <c r="L1" s="4">
+        <v>44882</v>
+      </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -1075,7 +1079,9 @@
       <c r="K2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1121,7 +1127,9 @@
       <c r="K3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1167,7 +1175,9 @@
       <c r="K4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1213,7 +1223,9 @@
       <c r="K5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1259,7 +1271,9 @@
       <c r="K6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1303,7 +1317,9 @@
       <c r="K7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1349,7 +1365,9 @@
       <c r="K8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L8" s="2"/>
+      <c r="L8" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>

--- a/Наработки/ТренировОчки.xlsx
+++ b/Наработки/ТренировОчки.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\garret\Наработки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36925C81-D6D4-4C8F-A451-C429E8D7ABC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1E4C98-186D-40E8-943C-E9F144AC7511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Понедельник (ноги)" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="73">
   <si>
     <t>Приседания с гантелей</t>
   </si>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t>8,75 на 10</t>
+  </si>
+  <si>
+    <t>8 на 15</t>
+  </si>
+  <si>
+    <t>6,25 на 20</t>
   </si>
 </sst>
 </file>
@@ -987,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069D14C5-5C04-4A07-A4F3-2B703457F47D}">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1049,16 +1055,16 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1097,16 +1103,16 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1145,13 +1151,13 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1193,7 +1199,7 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1208,7 +1214,7 @@
       <c r="F5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -1241,7 +1247,7 @@
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1289,8 +1295,8 @@
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1308,7 +1314,7 @@
       <c r="H7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -1335,7 +1341,7 @@
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1391,14 +1397,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49ADF2D0-0286-4B00-B838-815531830F2D}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -1432,7 +1438,9 @@
       <c r="J1" s="4">
         <v>44878</v>
       </c>
-      <c r="K1" s="2"/>
+      <c r="K1" s="4">
+        <v>44884</v>
+      </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -1455,7 +1463,7 @@
       <c r="C2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1476,7 +1484,9 @@
       <c r="J2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1499,7 +1509,7 @@
       <c r="C3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1520,7 +1530,9 @@
       <c r="J3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1537,7 +1549,7 @@
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1564,7 +1576,9 @@
       <c r="J4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1581,7 +1595,7 @@
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1608,7 +1622,9 @@
       <c r="J5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1625,7 +1641,7 @@
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1652,7 +1668,9 @@
       <c r="J6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1669,13 +1687,13 @@
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1693,10 +1711,12 @@
       <c r="I7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1713,13 +1733,13 @@
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -1737,10 +1757,12 @@
       <c r="I8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>

--- a/Наработки/ТренировОчки.xlsx
+++ b/Наработки/ТренировОчки.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\garret\Наработки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1E4C98-186D-40E8-943C-E9F144AC7511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA36305C-C3E2-469D-8EBA-EFC6ED49D804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Понедельник (ноги)" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="73">
   <si>
     <t>Приседания с гантелей</t>
   </si>
@@ -651,14 +651,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F46DF2F-CEE8-4DF3-83A5-879C1B45EA1A}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -693,9 +693,11 @@
         <v>44872</v>
       </c>
       <c r="K1" s="4">
-        <v>44879</v>
-      </c>
-      <c r="L1" s="4"/>
+        <v>44880</v>
+      </c>
+      <c r="L1" s="4">
+        <v>44887</v>
+      </c>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -741,7 +743,9 @@
       <c r="K2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -787,7 +791,9 @@
       <c r="K3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -827,13 +833,15 @@
       <c r="I4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="5" t="s">
         <v>53</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -879,7 +887,9 @@
       <c r="K5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -925,7 +935,9 @@
       <c r="K6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -971,7 +983,9 @@
       <c r="K7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1397,7 +1411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49ADF2D0-0286-4B00-B838-815531830F2D}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>

--- a/Наработки/ТренировОчки.xlsx
+++ b/Наработки/ТренировОчки.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\garret\Наработки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA36305C-C3E2-469D-8EBA-EFC6ED49D804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DDE2F9-C6B7-458D-AF95-DD9997926557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Понедельник (ноги)" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
   <si>
     <t>Приседания с гантелей</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>6,25 на 20</t>
+  </si>
+  <si>
+    <t>12,5 на 20</t>
   </si>
 </sst>
 </file>
@@ -651,7 +654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F46DF2F-CEE8-4DF3-83A5-879C1B45EA1A}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -1007,14 +1010,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069D14C5-5C04-4A07-A4F3-2B703457F47D}">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -1054,7 +1058,9 @@
       <c r="L1" s="4">
         <v>44882</v>
       </c>
-      <c r="M1" s="2"/>
+      <c r="M1" s="4">
+        <v>44892</v>
+      </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -1102,7 +1108,9 @@
       <c r="L2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -1150,7 +1158,9 @@
       <c r="L3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -1198,7 +1208,9 @@
       <c r="L4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -1246,7 +1258,9 @@
       <c r="L5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -1294,7 +1308,9 @@
       <c r="L6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -1340,7 +1356,9 @@
       <c r="L7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -1388,7 +1406,9 @@
       <c r="L8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>

--- a/Наработки/ТренировОчки.xlsx
+++ b/Наработки/ТренировОчки.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\garret\Наработки\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\garret\Наработки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DDE2F9-C6B7-458D-AF95-DD9997926557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B19077-BD43-4705-A450-1E665E42EF2B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Понедельник (ноги)" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="85">
   <si>
     <t>Приседания с гантелей</t>
   </si>
@@ -244,6 +244,39 @@
   </si>
   <si>
     <t>12,5 на 20</t>
+  </si>
+  <si>
+    <t>Пресс</t>
+  </si>
+  <si>
+    <t>50 на 3</t>
+  </si>
+  <si>
+    <t>10 на 25</t>
+  </si>
+  <si>
+    <t>70 на 3</t>
+  </si>
+  <si>
+    <t>100 на 3</t>
+  </si>
+  <si>
+    <t>11,25 на 20</t>
+  </si>
+  <si>
+    <t>7,5 на 6</t>
+  </si>
+  <si>
+    <t>5,5 на 6</t>
+  </si>
+  <si>
+    <t>7,5 на 15</t>
+  </si>
+  <si>
+    <t>80 на 3</t>
+  </si>
+  <si>
+    <t>7,5 на 8</t>
   </si>
 </sst>
 </file>
@@ -264,7 +297,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,8 +310,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -301,18 +340,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -652,16 +707,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F46DF2F-CEE8-4DF3-83A5-879C1B45EA1A}">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -701,11 +756,21 @@
       <c r="L1" s="4">
         <v>44887</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="M1" s="4">
+        <v>44978</v>
+      </c>
+      <c r="N1" s="4">
+        <v>44985</v>
+      </c>
+      <c r="O1" s="4">
+        <v>44998</v>
+      </c>
+      <c r="P1" s="4">
+        <v>45012</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>44654</v>
+      </c>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
@@ -749,11 +814,21 @@
       <c r="L2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -797,11 +872,21 @@
       <c r="L3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
@@ -846,10 +931,16 @@
         <v>64</v>
       </c>
       <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="P4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -893,11 +984,21 @@
       <c r="L5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
@@ -941,11 +1042,21 @@
       <c r="L6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -953,52 +1064,85 @@
       <c r="V6" s="2"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1010,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069D14C5-5C04-4A07-A4F3-2B703457F47D}">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1019,6 +1163,7 @@
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -1061,9 +1206,15 @@
       <c r="M1" s="4">
         <v>44892</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="N1" s="4">
+        <v>44624</v>
+      </c>
+      <c r="O1" s="4">
+        <v>44636</v>
+      </c>
+      <c r="P1" s="4">
+        <v>44649</v>
+      </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -1111,9 +1262,15 @@
       <c r="M2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -1161,9 +1318,15 @@
       <c r="M3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -1211,9 +1374,15 @@
       <c r="M4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -1261,9 +1430,15 @@
       <c r="M5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -1311,9 +1486,15 @@
       <c r="M6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -1359,9 +1540,15 @@
       <c r="M7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -1409,9 +1596,15 @@
       <c r="M8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -1432,13 +1625,13 @@
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -1475,9 +1668,15 @@
       <c r="K1" s="4">
         <v>44884</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="L1" s="4">
+        <v>44997</v>
+      </c>
+      <c r="M1" s="4">
+        <v>45007</v>
+      </c>
+      <c r="N1" s="4">
+        <v>45018</v>
+      </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -1521,9 +1720,15 @@
       <c r="K2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -1567,9 +1772,15 @@
       <c r="K3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -1613,9 +1824,15 @@
       <c r="K4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -1659,9 +1876,15 @@
       <c r="K5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1705,9 +1928,15 @@
       <c r="K6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1751,9 +1980,15 @@
       <c r="K7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1797,9 +2032,15 @@
       <c r="K8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>

--- a/Наработки/ТренировОчки.xlsx
+++ b/Наработки/ТренировОчки.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\garret\Наработки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B19077-BD43-4705-A450-1E665E42EF2B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48A98A0-B113-4766-B8B2-C1FCD0215D30}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Понедельник (ноги)" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="85">
   <si>
     <t>Приседания с гантелей</t>
   </si>
@@ -297,7 +297,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +313,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,7 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -368,6 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -709,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F46DF2F-CEE8-4DF3-83A5-879C1B45EA1A}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -1154,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069D14C5-5C04-4A07-A4F3-2B703457F47D}">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1163,7 +1170,7 @@
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -1207,15 +1214,17 @@
         <v>44892</v>
       </c>
       <c r="N1" s="4">
-        <v>44624</v>
+        <v>44989</v>
       </c>
       <c r="O1" s="4">
-        <v>44636</v>
+        <v>45001</v>
       </c>
       <c r="P1" s="4">
-        <v>44649</v>
-      </c>
-      <c r="Q1" s="2"/>
+        <v>45014</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>45022</v>
+      </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -1271,7 +1280,9 @@
       <c r="P2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="2"/>
+      <c r="Q2" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -1327,7 +1338,9 @@
       <c r="P3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="2"/>
+      <c r="Q3" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
@@ -1383,7 +1396,9 @@
       <c r="P4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="2"/>
+      <c r="Q4" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -1439,7 +1454,9 @@
       <c r="P5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
@@ -1495,7 +1512,9 @@
       <c r="P6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q6" s="2"/>
+      <c r="Q6" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -1549,7 +1568,9 @@
       <c r="P7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" s="2"/>
+      <c r="Q7" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -1605,7 +1626,9 @@
       <c r="P8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>

--- a/Наработки/ТренировОчки.xlsx
+++ b/Наработки/ТренировОчки.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\garret\Наработки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48A98A0-B113-4766-B8B2-C1FCD0215D30}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAC1C62-1F51-4D70-BAF4-5641A08B4369}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Понедельник (ноги)" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="85">
   <si>
     <t>Приседания с гантелей</t>
   </si>
@@ -1161,7 +1161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069D14C5-5C04-4A07-A4F3-2B703457F47D}">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
@@ -1647,14 +1647,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49ADF2D0-0286-4B00-B838-815531830F2D}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -1700,7 +1700,9 @@
       <c r="N1" s="4">
         <v>45018</v>
       </c>
-      <c r="O1" s="2"/>
+      <c r="O1" s="4">
+        <v>45026</v>
+      </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -1752,7 +1754,9 @@
       <c r="N2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="2"/>
+      <c r="O2" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -1804,7 +1808,9 @@
       <c r="N3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="2"/>
+      <c r="O3" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -1856,7 +1862,9 @@
       <c r="N4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="2"/>
+      <c r="O4" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -1908,7 +1916,9 @@
       <c r="N5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="O5" s="2"/>
+      <c r="O5" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -1960,7 +1970,9 @@
       <c r="N6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="O6" s="2"/>
+      <c r="O6" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -2012,7 +2024,9 @@
       <c r="N7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="2"/>
+      <c r="O7" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -2064,7 +2078,9 @@
       <c r="N8" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="O8" s="2"/>
+      <c r="O8" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>

--- a/Наработки/ТренировОчки.xlsx
+++ b/Наработки/ТренировОчки.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\garret\Наработки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAC1C62-1F51-4D70-BAF4-5641A08B4369}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0EA65E-2BD7-472C-BD6D-B6782091A0D1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Понедельник (ноги)" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="85">
   <si>
     <t>Приседания с гантелей</t>
   </si>
@@ -716,14 +716,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F46DF2F-CEE8-4DF3-83A5-879C1B45EA1A}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -778,7 +778,9 @@
       <c r="Q1" s="4">
         <v>44654</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="4">
+        <v>44663</v>
+      </c>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
@@ -836,7 +838,9 @@
       <c r="Q2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="2"/>
+      <c r="R2" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
@@ -894,7 +898,9 @@
       <c r="Q3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R3" s="2"/>
+      <c r="R3" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -1006,7 +1012,9 @@
       <c r="Q5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R5" s="2"/>
+      <c r="R5" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
@@ -1064,7 +1072,9 @@
       <c r="Q6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R6" s="2"/>
+      <c r="R6" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -1122,7 +1132,9 @@
       <c r="Q7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="7"/>
+      <c r="R7" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
@@ -1149,6 +1161,9 @@
       </c>
       <c r="Q8" s="2" t="s">
         <v>83</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1647,7 +1662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49ADF2D0-0286-4B00-B838-815531830F2D}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>

--- a/Наработки/ТренировОчки.xlsx
+++ b/Наработки/ТренировОчки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\garret\Наработки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0EA65E-2BD7-472C-BD6D-B6782091A0D1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD7D7CB-E7A4-4A3E-B907-43B5038D9B35}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="85">
   <si>
     <t>Приседания с гантелей</t>
   </si>
@@ -717,13 +717,13 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -781,7 +781,9 @@
       <c r="R1" s="4">
         <v>44663</v>
       </c>
-      <c r="S1" s="4"/>
+      <c r="S1" s="4">
+        <v>44675</v>
+      </c>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
@@ -841,7 +843,9 @@
       <c r="R2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="2"/>
+      <c r="S2" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -901,7 +905,9 @@
       <c r="R3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="2"/>
+      <c r="S3" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -1015,7 +1021,9 @@
       <c r="R5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S5" s="2"/>
+      <c r="S5" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
@@ -1075,7 +1083,9 @@
       <c r="R6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="2"/>
+      <c r="S6" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -1163,6 +1173,9 @@
         <v>83</v>
       </c>
       <c r="R8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S8" s="2" t="s">
         <v>78</v>
       </c>
     </row>

--- a/Наработки/ТренировОчки.xlsx
+++ b/Наработки/ТренировОчки.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\garret\Наработки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD7D7CB-E7A4-4A3E-B907-43B5038D9B35}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2521D005-59B3-4745-86FD-D28998A1C4F5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Понедельник (ноги)" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="85">
   <si>
     <t>Приседания с гантелей</t>
   </si>
@@ -716,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F46DF2F-CEE8-4DF3-83A5-879C1B45EA1A}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
@@ -1187,21 +1187,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069D14C5-5C04-4A07-A4F3-2B703457F47D}">
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:AP14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1253,13 +1255,35 @@
       <c r="Q1" s="4">
         <v>45022</v>
       </c>
-      <c r="R1" s="2"/>
+      <c r="R1" s="4">
+        <v>45042</v>
+      </c>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1311,13 +1335,35 @@
       <c r="Q2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="2"/>
+      <c r="R2" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1369,13 +1415,35 @@
       <c r="Q3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="2"/>
+      <c r="R3" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1427,13 +1495,35 @@
       <c r="Q4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="2"/>
+      <c r="R4" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1485,13 +1575,35 @@
       <c r="Q5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="R5" s="2"/>
+      <c r="R5" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1543,13 +1655,35 @@
       <c r="Q6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="R6" s="2"/>
+      <c r="R6" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1599,13 +1733,35 @@
       <c r="Q7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="2"/>
+      <c r="R7" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1657,13 +1813,35 @@
       <c r="Q8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="2"/>
+      <c r="R8" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
   </sheetData>

--- a/Наработки/ТренировОчки.xlsx
+++ b/Наработки/ТренировОчки.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\garret\Наработки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2521D005-59B3-4745-86FD-D28998A1C4F5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A587B9EF-C0F2-4FAC-83CE-CD3D2373CCE5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Понедельник (ноги)" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="85">
   <si>
     <t>Приседания с гантелей</t>
   </si>
@@ -1189,7 +1189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069D14C5-5C04-4A07-A4F3-2B703457F47D}">
   <dimension ref="A1:AP14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
@@ -1853,14 +1853,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49ADF2D0-0286-4B00-B838-815531830F2D}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -1909,7 +1909,9 @@
       <c r="O1" s="4">
         <v>45026</v>
       </c>
-      <c r="P1" s="2"/>
+      <c r="P1" s="4">
+        <v>45049</v>
+      </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -1963,7 +1965,9 @@
       <c r="O2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="P2" s="2"/>
+      <c r="P2" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -2017,7 +2021,9 @@
       <c r="O3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="P3" s="2"/>
+      <c r="P3" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -2071,7 +2077,9 @@
       <c r="O4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="2"/>
+      <c r="P4" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -2125,7 +2133,9 @@
       <c r="O5" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="P5" s="2"/>
+      <c r="P5" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -2179,7 +2189,9 @@
       <c r="O6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="P6" s="2"/>
+      <c r="P6" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -2233,7 +2245,9 @@
       <c r="O7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="2"/>
+      <c r="P7" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -2287,7 +2301,9 @@
       <c r="O8" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P8" s="2"/>
+      <c r="P8" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>

--- a/Наработки/ТренировОчки.xlsx
+++ b/Наработки/ТренировОчки.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\garret\Наработки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A587B9EF-C0F2-4FAC-83CE-CD3D2373CCE5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9896841-CED2-47BB-896F-82FB7DFC74C4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Понедельник (ноги)" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="85">
   <si>
     <t>Приседания с гантелей</t>
   </si>
@@ -1189,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069D14C5-5C04-4A07-A4F3-2B703457F47D}">
   <dimension ref="A1:AP14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1201,6 +1201,7 @@
     <col min="14" max="15" width="10.5703125" hidden="1" customWidth="1"/>
     <col min="16" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.85546875" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.2">
@@ -1258,7 +1259,9 @@
       <c r="R1" s="4">
         <v>45042</v>
       </c>
-      <c r="S1" s="2"/>
+      <c r="S1" s="4">
+        <v>45070</v>
+      </c>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -1338,7 +1341,9 @@
       <c r="R2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="2"/>
+      <c r="S2" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -1418,7 +1423,9 @@
       <c r="R3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="S3" s="2"/>
+      <c r="S3" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -1498,7 +1505,9 @@
       <c r="R4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="2"/>
+      <c r="S4" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
@@ -1578,7 +1587,9 @@
       <c r="R5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="S5" s="2"/>
+      <c r="S5" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
@@ -1658,7 +1669,9 @@
       <c r="R6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="S6" s="2"/>
+      <c r="S6" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -1736,7 +1749,9 @@
       <c r="R7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S7" s="2"/>
+      <c r="S7" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
@@ -1816,7 +1831,9 @@
       <c r="R8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="S8" s="2"/>
+      <c r="S8" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
@@ -1853,7 +1870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49ADF2D0-0286-4B00-B838-815531830F2D}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>

--- a/Наработки/ТренировОчки.xlsx
+++ b/Наработки/ТренировОчки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\garret\Наработки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9896841-CED2-47BB-896F-82FB7DFC74C4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774859BF-19F1-43AC-B8C6-9560722FE84F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="85">
   <si>
     <t>Приседания с гантелей</t>
   </si>
@@ -1190,7 +1190,7 @@
   <dimension ref="A1:AP14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1202,6 +1202,7 @@
     <col min="16" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.85546875" customWidth="1"/>
     <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.2">
@@ -1262,7 +1263,9 @@
       <c r="S1" s="4">
         <v>45070</v>
       </c>
-      <c r="T1" s="2"/>
+      <c r="T1" s="4">
+        <v>45091</v>
+      </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
@@ -1344,7 +1347,9 @@
       <c r="S2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="2"/>
+      <c r="T2" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
@@ -1426,7 +1431,9 @@
       <c r="S3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="2"/>
+      <c r="T3" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
@@ -1508,7 +1515,9 @@
       <c r="S4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="2"/>
+      <c r="T4" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
@@ -1590,7 +1599,9 @@
       <c r="S5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="T5" s="2"/>
+      <c r="T5" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
@@ -1834,7 +1845,9 @@
       <c r="S8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="T8" s="2"/>
+      <c r="T8" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>

--- a/Наработки/ТренировОчки.xlsx
+++ b/Наработки/ТренировОчки.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\garret\Наработки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774859BF-19F1-43AC-B8C6-9560722FE84F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C2D154-30DF-4032-BD51-1B4ECC7D1362}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Понедельник (ноги)" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="86">
   <si>
     <t>Приседания с гантелей</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>7,5 на 8</t>
+  </si>
+  <si>
+    <t>5 на 6</t>
   </si>
 </sst>
 </file>
@@ -1189,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069D14C5-5C04-4A07-A4F3-2B703457F47D}">
   <dimension ref="A1:AP14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1683,7 +1686,9 @@
       <c r="S6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="T6" s="2"/>
+      <c r="T6" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1763,7 +1768,9 @@
       <c r="S7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="T7" s="2"/>
+      <c r="T7" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1883,14 +1890,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49ADF2D0-0286-4B00-B838-815531830F2D}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="12" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -1942,7 +1950,9 @@
       <c r="P1" s="4">
         <v>45049</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="4">
+        <v>45093</v>
+      </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -1998,7 +2008,9 @@
       <c r="P2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="Q2" s="2"/>
+      <c r="Q2" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -2054,7 +2066,9 @@
       <c r="P3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="Q3" s="2"/>
+      <c r="Q3" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
@@ -2110,7 +2124,9 @@
       <c r="P4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="2"/>
+      <c r="Q4" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -2166,7 +2182,9 @@
       <c r="P5" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
@@ -2222,7 +2240,9 @@
       <c r="P6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Q6" s="2"/>
+      <c r="Q6" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -2278,7 +2298,9 @@
       <c r="P7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="2"/>
+      <c r="Q7" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -2334,7 +2356,9 @@
       <c r="P8" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>

--- a/Наработки/ТренировОчки.xlsx
+++ b/Наработки/ТренировОчки.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\garret\Наработки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C2D154-30DF-4032-BD51-1B4ECC7D1362}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9551422-BC7D-444D-BC3A-3F6C93A47861}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Понедельник (ноги)" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="86">
   <si>
     <t>Приседания с гантелей</t>
   </si>
@@ -717,19 +717,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F46DF2F-CEE8-4DF3-83A5-879C1B45EA1A}">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:AV8"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="13" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -779,19 +780,47 @@
         <v>45012</v>
       </c>
       <c r="Q1" s="4">
-        <v>44654</v>
+        <v>45019</v>
       </c>
       <c r="R1" s="4">
-        <v>44663</v>
+        <v>45028</v>
       </c>
       <c r="S1" s="4">
-        <v>44675</v>
-      </c>
-      <c r="T1" s="4"/>
+        <v>45040</v>
+      </c>
+      <c r="T1" s="4">
+        <v>45096</v>
+      </c>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -849,11 +878,39 @@
       <c r="S2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="2"/>
+      <c r="T2" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -911,11 +968,39 @@
       <c r="S3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="2"/>
+      <c r="T3" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -965,11 +1050,39 @@
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="T4" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1027,11 +1140,39 @@
       <c r="S5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T5" s="2"/>
+      <c r="T5" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1089,11 +1230,39 @@
       <c r="S6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T6" s="2"/>
+      <c r="T6" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -1149,11 +1318,39 @@
         <v>34</v>
       </c>
       <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
+      <c r="T7" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2"/>
     </row>
-    <row r="8" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>74</v>
       </c>
@@ -1180,6 +1377,9 @@
       </c>
       <c r="S8" s="2" t="s">
         <v>78</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1192,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069D14C5-5C04-4A07-A4F3-2B703457F47D}">
   <dimension ref="A1:AP14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1206,6 +1406,7 @@
     <col min="18" max="18" width="10.85546875" customWidth="1"/>
     <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.28515625" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.2">
@@ -1269,7 +1470,9 @@
       <c r="T1" s="4">
         <v>45091</v>
       </c>
-      <c r="U1" s="2"/>
+      <c r="U1" s="4">
+        <v>45097</v>
+      </c>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -1353,7 +1556,9 @@
       <c r="T2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="2"/>
+      <c r="U2" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -1437,7 +1642,9 @@
       <c r="T3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="2"/>
+      <c r="U3" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1521,7 +1728,9 @@
       <c r="T4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U4" s="2"/>
+      <c r="U4" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1605,7 +1814,9 @@
       <c r="T5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="U5" s="2"/>
+      <c r="U5" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1689,7 +1900,9 @@
       <c r="T6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="U6" s="2"/>
+      <c r="U6" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1771,7 +1984,9 @@
       <c r="T7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="U7" s="2"/>
+      <c r="U7" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1855,7 +2070,9 @@
       <c r="T8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="U8" s="2"/>
+      <c r="U8" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -1890,7 +2107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49ADF2D0-0286-4B00-B838-815531830F2D}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>

--- a/Наработки/ТренировОчки.xlsx
+++ b/Наработки/ТренировОчки.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\garret\Наработки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9551422-BC7D-444D-BC3A-3F6C93A47861}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A685035-18D1-4B05-9EC3-886B0151E432}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Понедельник (ноги)" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="86">
   <si>
     <t>Приседания с гантелей</t>
   </si>
@@ -1392,7 +1392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069D14C5-5C04-4A07-A4F3-2B703457F47D}">
   <dimension ref="A1:AP14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
@@ -2107,8 +2107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49ADF2D0-0286-4B00-B838-815531830F2D}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2116,6 +2116,7 @@
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="11" width="10.5703125" hidden="1" customWidth="1"/>
     <col min="12" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -2170,7 +2171,9 @@
       <c r="Q1" s="4">
         <v>45093</v>
       </c>
-      <c r="R1" s="2"/>
+      <c r="R1" s="4">
+        <v>45099</v>
+      </c>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -2228,7 +2231,9 @@
       <c r="Q2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="R2" s="2"/>
+      <c r="R2" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
@@ -2286,7 +2291,9 @@
       <c r="Q3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="R3" s="2"/>
+      <c r="R3" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -2344,7 +2351,9 @@
       <c r="Q4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="R4" s="2"/>
+      <c r="R4" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -2402,7 +2411,9 @@
       <c r="Q5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="R5" s="2"/>
+      <c r="R5" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
@@ -2460,7 +2471,9 @@
       <c r="Q6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="R6" s="2"/>
+      <c r="R6" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
